--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -1996,9 +1996,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -606,7 +606,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-CORE】　completed or stopped に限定される。</t>
+【JP-Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -962,7 +962,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -606,7 +606,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-Core仕様】　completed or stopped に限定される。</t>
+【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -618,7 +618,7 @@
     <t>患者への投与状況</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1628,6 +1628,137 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -2061,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2094,7 +2225,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -11591,17 +11722,15 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>504</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11638,17 +11767,19 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>231</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11660,19 +11791,19 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>508</v>
+        <v>232</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11680,20 +11811,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11705,16 +11834,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>505</v>
+        <v>234</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>235</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>507</v>
+        <v>163</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11752,43 +11881,43 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>503</v>
+        <v>237</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>508</v>
+        <v>232</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11796,7 +11925,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11816,19 +11945,23 @@
         <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>506</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11876,7 +12009,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>231</v>
+        <v>511</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11888,19 +12021,19 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>232</v>
+        <v>512</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11908,45 +12041,47 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>234</v>
+        <v>515</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11966,55 +12101,55 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>237</v>
+        <v>521</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>232</v>
+        <v>522</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12022,11 +12157,9 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12035,7 +12168,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12044,19 +12177,21 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12104,31 +12239,31 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>237</v>
+        <v>528</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12136,7 +12271,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12159,16 +12294,18 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>519</v>
+        <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12216,7 +12353,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12225,7 +12362,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>536</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12234,13 +12371,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12248,7 +12385,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12271,16 +12408,20 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12304,13 +12445,11 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>77</v>
+        <v>543</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12328,7 +12467,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12346,13 +12485,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12360,11 +12499,9 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12385,16 +12522,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12432,19 +12569,17 @@
         <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12453,22 +12588,22 @@
         <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>533</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12476,9 +12611,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B92" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12487,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12499,16 +12636,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12558,13 +12695,13 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
@@ -12576,15 +12713,809 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
@@ -4813,7 +4816,7 @@
         <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4889,10 +4892,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4943,7 +4946,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4961,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5001,10 +5004,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5048,7 +5051,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5060,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5075,7 +5078,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5089,7 +5092,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5112,19 +5115,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5173,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5191,13 +5194,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5231,10 +5234,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5285,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5303,7 +5306,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5343,10 +5346,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5390,7 +5393,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5399,7 +5402,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5457,16 +5460,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5515,7 +5518,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5533,13 +5536,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5573,13 +5576,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5629,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5647,13 +5650,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5687,14 +5690,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5743,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5761,13 +5764,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5801,14 +5804,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5857,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5875,13 +5878,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5889,7 +5892,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5912,19 +5915,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5973,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5991,13 +5994,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6031,16 +6034,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6107,13 +6110,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6124,7 +6127,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6146,7 +6149,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6260,16 +6263,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6319,7 +6322,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6334,16 +6337,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6351,7 +6354,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,10 +6380,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6431,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6449,7 +6452,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6489,10 +6492,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>163</v>
@@ -6536,7 +6539,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
@@ -6545,7 +6548,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6563,7 +6566,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6603,13 +6606,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6659,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6668,7 +6671,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6717,13 +6720,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6749,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6776,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6831,13 +6834,13 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6887,7 +6890,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6905,7 +6908,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6945,13 +6948,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7001,7 +7004,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7056,16 +7059,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7115,7 +7118,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7130,16 +7133,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7170,16 +7173,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7229,7 +7232,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7247,10 +7250,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7261,7 +7264,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7284,16 +7287,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7343,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7358,16 +7361,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7398,13 +7401,13 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7455,7 +7458,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7470,16 +7473,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,10 +7516,10 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7567,7 +7570,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7585,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7602,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7625,10 +7628,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>163</v>
@@ -7681,7 +7684,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7699,7 +7702,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7713,11 +7716,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7739,10 +7742,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>163</v>
@@ -7797,7 +7800,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7829,7 +7832,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7855,10 +7858,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7888,10 +7891,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7909,7 +7912,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7924,10 +7927,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7941,7 +7944,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7964,13 +7967,13 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8021,7 +8024,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -8036,10 +8039,10 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8053,7 +8056,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8079,10 +8082,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8112,10 +8115,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8133,7 +8136,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8148,16 +8151,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8165,7 +8168,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8188,16 +8191,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8247,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8262,24 +8265,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8302,19 +8305,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8378,16 +8381,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8395,7 +8398,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8418,16 +8421,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8477,7 +8480,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8495,13 +8498,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8532,16 +8535,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8591,7 +8594,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8606,10 +8609,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8626,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8646,13 +8649,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8703,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8715,13 +8718,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8738,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8761,10 +8764,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8815,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8833,7 +8836,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8850,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8925,7 +8928,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8957,10 +8960,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8982,13 +8985,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9039,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9071,10 +9074,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9096,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9153,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9185,10 +9188,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9210,13 +9213,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9267,7 +9270,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9299,11 +9302,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9325,10 +9328,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>163</v>
@@ -9383,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,10 +9444,10 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9495,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9513,7 +9516,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9553,13 +9556,13 @@
         <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9588,10 +9591,10 @@
         <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9609,7 +9612,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9627,13 +9630,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9641,7 +9644,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,10 +9670,10 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9721,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9739,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9753,7 +9756,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9779,10 +9782,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>163</v>
@@ -9826,7 +9829,7 @@
         <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
@@ -9835,7 +9838,7 @@
         <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9853,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9867,10 +9870,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9892,13 +9895,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9949,7 +9952,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9981,7 +9984,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10004,19 +10007,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10065,7 +10068,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10083,13 +10086,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10097,7 +10100,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,16 +10126,16 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10181,7 +10184,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10199,13 +10202,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10213,7 +10216,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10239,10 +10242,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>200</v>
@@ -10274,10 +10277,10 @@
         <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10295,7 +10298,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10313,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10353,10 +10356,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10407,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10425,7 +10428,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10439,7 +10442,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10465,10 +10468,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10512,7 +10515,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10521,7 +10524,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10539,7 +10542,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10578,13 +10581,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10635,7 +10638,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10667,7 +10670,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10690,19 +10693,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10751,7 +10754,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10769,13 +10772,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10783,7 +10786,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,16 +10812,16 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10867,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10885,13 +10888,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10899,7 +10902,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10925,13 +10928,13 @@
         <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10960,10 +10963,10 @@
         <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10981,7 +10984,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10999,13 +11002,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11013,7 +11016,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11039,10 +11042,10 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11093,7 +11096,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11111,7 +11114,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11125,7 +11128,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11151,10 +11154,10 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>163</v>
@@ -11198,7 +11201,7 @@
         <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
@@ -11207,7 +11210,7 @@
         <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11225,7 +11228,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11239,10 +11242,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11264,13 +11267,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11321,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11353,7 +11356,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11376,19 +11379,19 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11437,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11455,13 +11458,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11469,7 +11472,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11495,16 +11498,16 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11553,7 +11556,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11571,13 +11574,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11588,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11608,16 +11611,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11667,7 +11670,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11685,13 +11688,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11725,10 +11728,10 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11779,7 +11782,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11800,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11814,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11837,10 +11840,10 @@
         <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>163</v>
@@ -11884,7 +11887,7 @@
         <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
@@ -11893,7 +11896,7 @@
         <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11911,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11925,7 +11928,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11948,19 +11951,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12009,7 +12012,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12027,13 +12030,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12041,7 +12044,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12067,20 +12070,20 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12104,10 +12107,10 @@
         <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12125,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12143,13 +12146,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12157,7 +12160,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12183,14 +12186,14 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12242,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12257,13 +12260,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12297,14 +12300,14 @@
         <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12353,7 +12356,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12362,7 +12365,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12371,13 +12374,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12411,16 +12414,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12449,7 +12452,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12467,7 +12470,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12485,13 +12488,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12499,7 +12502,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12522,16 +12525,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12579,7 +12582,7 @@
         <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12597,13 +12600,13 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12611,10 +12614,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
@@ -12636,16 +12639,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12695,7 +12698,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12713,13 +12716,13 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12727,7 +12730,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12753,10 +12756,10 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12807,7 +12810,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12825,7 +12828,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12865,10 +12868,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>163</v>
@@ -12912,7 +12915,7 @@
         <v>134</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
@@ -12921,7 +12924,7 @@
         <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12939,7 +12942,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12953,10 +12956,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>77</v>
@@ -12978,13 +12981,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13035,7 +13038,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13067,7 +13070,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13090,13 +13093,13 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13147,7 +13150,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13165,7 +13168,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13179,7 +13182,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13202,13 +13205,13 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13259,7 +13262,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13277,7 +13280,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13291,10 +13294,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13316,16 +13319,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13375,7 +13378,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13387,19 +13390,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13407,7 +13410,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13430,16 +13433,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13489,7 +13492,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13507,7 +13510,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4889,13 +4893,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4946,7 +4950,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4964,7 +4968,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4978,7 +4982,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5004,10 +5008,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5051,7 +5055,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5060,7 +5064,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5078,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5092,7 +5096,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5115,19 +5119,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5176,7 +5180,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5194,13 +5198,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5212,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5231,13 +5235,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5288,7 +5292,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5310,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5320,7 +5324,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5346,10 +5350,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5393,7 +5397,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5402,7 +5406,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5438,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5460,16 +5464,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5536,13 +5540,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5554,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5573,16 +5577,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5632,7 +5636,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5650,13 +5654,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5668,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5690,14 +5694,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5764,13 +5768,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5801,17 +5805,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5860,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5878,13 +5882,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5892,7 +5896,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5915,19 +5919,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5980,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5994,13 +5998,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6008,7 +6012,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6031,19 +6035,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6092,7 +6096,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6110,13 +6114,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6127,7 +6131,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6149,7 +6153,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6240,7 +6244,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6263,16 +6267,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6322,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6337,16 +6341,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6354,7 +6358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,13 +6381,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6434,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6452,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6466,7 +6470,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6492,10 +6496,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>163</v>
@@ -6539,7 +6543,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
@@ -6548,7 +6552,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6566,7 +6570,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6580,7 +6584,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6603,16 +6607,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6662,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6671,7 +6675,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6694,7 +6698,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6720,13 +6724,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6752,13 +6756,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6808,7 +6812,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6834,13 +6838,13 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6890,7 +6894,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6908,7 +6912,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6922,7 +6926,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6945,16 +6949,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7004,7 +7008,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7040,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7059,16 +7063,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7118,7 +7122,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7133,16 +7137,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7150,7 +7154,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7173,16 +7177,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7232,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7250,10 +7254,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7264,7 +7268,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7287,16 +7291,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7346,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7361,16 +7365,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7378,7 +7382,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7401,13 +7405,13 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7458,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7473,16 +7477,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7490,7 +7494,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,13 +7517,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7570,7 +7574,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7588,7 +7592,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7602,7 +7606,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7628,10 +7632,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>163</v>
@@ -7684,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7702,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7716,11 +7720,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7742,10 +7746,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>163</v>
@@ -7800,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7832,7 +7836,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7858,10 +7862,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7891,10 +7895,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7912,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7927,10 +7931,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7944,7 +7948,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7967,13 +7971,13 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8024,7 +8028,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -8039,10 +8043,10 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8060,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8082,10 +8086,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8115,10 +8119,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8151,16 +8155,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8168,7 +8172,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8191,16 +8195,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8250,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8265,24 +8269,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8305,19 +8309,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8366,7 +8370,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8381,16 +8385,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8402,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8421,16 +8425,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8480,7 +8484,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8498,13 +8502,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8512,7 +8516,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8535,16 +8539,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8594,7 +8598,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8609,10 +8613,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8626,7 +8630,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8649,13 +8653,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8706,7 +8710,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8718,13 +8722,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8738,7 +8742,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8761,13 +8765,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8818,7 +8822,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8836,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8850,7 +8854,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8928,7 +8932,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8960,10 +8964,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8985,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9042,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9074,10 +9078,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9099,13 +9103,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9156,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9188,10 +9192,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9213,13 +9217,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9270,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9302,11 +9306,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9328,10 +9332,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>163</v>
@@ -9386,7 +9390,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9418,7 +9422,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9498,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9516,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9534,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9556,13 +9560,13 @@
         <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9591,10 +9595,10 @@
         <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9612,7 +9616,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9630,13 +9634,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9644,7 +9648,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,13 +9671,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9724,7 +9728,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9756,7 +9760,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9782,10 +9786,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>163</v>
@@ -9829,7 +9833,7 @@
         <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
@@ -9838,7 +9842,7 @@
         <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9856,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9895,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9952,7 +9956,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9984,7 +9988,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10007,19 +10011,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10068,7 +10072,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10086,13 +10090,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10100,7 +10104,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,19 +10127,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10184,7 +10188,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10202,13 +10206,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10216,7 +10220,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10242,10 +10246,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>200</v>
@@ -10277,10 +10281,10 @@
         <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10298,7 +10302,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10316,13 +10320,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10330,7 +10334,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10353,13 +10357,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10410,7 +10414,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10428,7 +10432,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10442,7 +10446,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10468,10 +10472,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10515,7 +10519,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10524,7 +10528,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10542,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10556,10 +10560,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10581,13 +10585,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10638,7 +10642,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10670,7 +10674,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10693,19 +10697,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10754,7 +10758,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10772,13 +10776,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10786,7 +10790,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,19 +10813,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10874,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10888,13 +10892,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10906,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10928,13 +10932,13 @@
         <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10963,10 +10967,10 @@
         <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10984,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11002,13 +11006,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11020,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11039,13 +11043,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11096,7 +11100,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11114,7 +11118,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11128,7 +11132,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11154,10 +11158,10 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>163</v>
@@ -11201,7 +11205,7 @@
         <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
@@ -11210,7 +11214,7 @@
         <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11228,7 +11232,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11242,10 +11246,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11267,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11324,7 +11328,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11356,7 +11360,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11379,19 +11383,19 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11440,7 +11444,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11458,13 +11462,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11472,7 +11476,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11495,19 +11499,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11556,7 +11560,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11574,13 +11578,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11588,7 +11592,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11611,16 +11615,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11670,7 +11674,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11688,13 +11692,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11702,7 +11706,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11725,13 +11729,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11782,7 +11786,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11800,7 +11804,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11814,7 +11818,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11840,10 +11844,10 @@
         <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>163</v>
@@ -11887,7 +11891,7 @@
         <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11900,7 @@
         <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11914,7 +11918,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11932,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11951,19 +11955,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12012,7 +12016,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12030,13 +12034,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12044,7 +12048,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12070,20 +12074,20 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12107,10 +12111,10 @@
         <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12128,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12146,13 +12150,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12160,7 +12164,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12183,17 +12187,17 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12242,7 +12246,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12260,13 +12264,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12274,7 +12278,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12300,14 +12304,14 @@
         <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12356,7 +12360,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12365,7 +12369,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12374,13 +12378,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12388,7 +12392,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12414,16 +12418,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12452,7 +12456,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12470,7 +12474,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12488,13 +12492,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12502,7 +12506,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12525,16 +12529,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12582,7 +12586,7 @@
         <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12600,13 +12604,13 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12614,10 +12618,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
@@ -12639,16 +12643,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12698,7 +12702,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12716,13 +12720,13 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12730,7 +12734,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12753,13 +12757,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12810,7 +12814,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12828,7 +12832,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12842,7 +12846,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12868,10 +12872,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>163</v>
@@ -12915,7 +12919,7 @@
         <v>134</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
@@ -12924,7 +12928,7 @@
         <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12942,7 +12946,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12956,10 +12960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>77</v>
@@ -12981,13 +12985,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13038,7 +13042,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13070,7 +13074,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13093,13 +13097,13 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13150,7 +13154,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13168,7 +13172,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13182,7 +13186,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13205,13 +13209,13 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13262,7 +13266,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13280,7 +13284,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13294,10 +13298,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13319,16 +13323,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13378,7 +13382,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13390,19 +13394,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13410,7 +13414,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13433,16 +13437,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13492,7 +13496,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13510,7 +13514,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministrationBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -692,23 +692,26 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t xml:space="preserve">Reference(Medication)
+</t>
+  </si>
+  <si>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -730,224 +733,6 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>medicationReference</t>
   </si>
   <si>
@@ -958,7 +743,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -985,106 +770,10 @@
     <t>PID-3-Patient ID List</t>
   </si>
   <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL　リテラル参照、相対、内部、または絶対URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.
-他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")　参照リソースのタイプ</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
-参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known　リテラル参照（reference要素）で記述できない場合の論理ID参照</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.
-ターゲットリソースの識別子。これは、他のリソースを直接参照する方法がない場合に使用される。これは、リソースが表すエンティティがFHIRサーバーを介して利用できないため、またはリソースの作成者が既知の識別子を実際の場所に変換する方法がないためである 。 Reference.identifierが実際にFHIRインスタンスとして公開されているものを指している必要はないが、FHIRインスタンスとして公開されることが期待されるビジネス概念を指している必要があり、そのインスタンスは参照で許可されているFHIRリソースタイプとなる。</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
-参照の代わりに識別子が提供される場合、参照を処理するシステムは、識別子が使用されるビジネスコンテキストを理解している場合にのみ、識別子を参照に解決できる。これはグローバルな場合もあるが（たとえば、国民ID）、そうでない場合もある。このため、参照を操作するために説明されている便利なメカニズム（チェーン、インクルードなど）はどれも不可能であり、サーバーが参照を解決できると期待されるべきではない。サーバーは、識別子ベースの参照をそのまま受け入れ、解決したり、拒否したりする場合がある。CapabilityStatement.rest.resource.referencePolicyを参照。
-識別子とリテラル参照の両方が提供されている場合は、リテラル参照が優先される。リソースを処理するアプリケーションは、識別子がリテラル参照と一致することを確認できるが、確認することは必須ではない。
-論理参照をリテラル参照に変換するアプリケーションは、論理参照を存在させたままにするか、削除するかを選択できる。
-参照は、FHIRリソースとして表現できる可能性のある構造を指すことを目的としているが、実際のFHIRリソースインスタンスとして存在する必要はない。ただし、アプリケーションが参照のターゲットを実際に見つけたい場合を除く。識別子と呼ばれるコンテンツは、参照に許可されるリソースタイプの制限によって暗示される論理的な制約を満たす必要がある。たとえば、タイプがReference（Observation | DiagnosticReport）の場合、薬の処方箋の識別子を送信することは正当ではない。 Reference.identifierのユースケースの1つは、FHIR表現が存在しない状況である（タイプはReference（Any）である）。</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource　リソースの代替テキスト</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.
-リソース参照に加えてリソースを識別するプレーンテキストの説明。</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1184,7 +873,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1228,7 +942,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1272,7 +986,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
 </t>
   </si>
   <si>
@@ -1470,50 +1184,13 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
   </si>
   <si>
     <t>RXR-2 Administration Site / RXR-6 Administration Site Modifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>siteComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageSite_SiteComment}
-</t>
-  </si>
-  <si>
-    <t>投与部位コメント</t>
-  </si>
-  <si>
-    <t>投与部位コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.text</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route</t>
@@ -1526,10 +1203,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1542,6 +1216,9 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>routeComment</t>
@@ -1560,21 +1237,65 @@
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.text</t>
   </si>
   <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered　投与方法</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.
-薬物が体内に導入されることを意図している、または体内に導入された方法を示すコード化された値。ほとんどの場合、この属性は入力されないが、注射では最も一般的に使用される。たとえば、スロープッシュ（ゆっくり注射）、ディープIV（深部静脈注射）。</t>
-  </si>
-  <si>
-    <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -1611,13 +1332,186 @@
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.text</t>
   </si>
   <si>
+    <t>投与⽅法のテキスト表現</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+  </si>
+  <si>
+    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1628,144 +1522,17 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1796,8 +1563,21 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x].id</t>
@@ -1822,29 +1602,162 @@
     <t>MedicationAdministration.dosage.rate[x].numerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与量</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
+  </si>
+  <si>
+    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
+  </si>
+  <si>
+    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
+  </si>
+  <si>
+    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>投与量の単位</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
+  </si>
+  <si>
+    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>コード化された単位表現を規定するシステム</t>
+  </si>
+  <si>
+    <t>単位をコード化して表現するシステムについてのID。</t>
+  </si>
+  <si>
+    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
+    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>.numerator</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>単位時間</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1853,10 +1766,77 @@
     <t>.denominator</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>単位時間の単位。UCUMを使用する。</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
     <t>rateQuantity</t>
   </si>
   <si>
-    <t>JP Coreでは未使用</t>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
   </si>
   <si>
     <t>The comparator is not used on a SimpleQuantity</t>
@@ -1865,14 +1845,40 @@
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>MedicationAdministration.dosage.rate[x].value</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].comparator</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].code</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2199,7 +2205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2208,8 +2214,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2231,8 +2237,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4700,26 +4706,26 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4737,16 +4743,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4757,14 +4763,14 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4779,7 +4785,7 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>215</v>
@@ -4814,13 +4820,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4853,16 +4859,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4870,7 +4876,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4878,7 +4884,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
@@ -4890,18 +4896,20 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4950,31 +4958,31 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4986,14 +4994,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -5005,16 +5013,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5052,43 +5060,43 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5096,7 +5104,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5104,7 +5112,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -5116,23 +5124,21 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5201,10 +5207,10 @@
         <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5212,7 +5218,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5220,7 +5226,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -5232,18 +5238,20 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5292,10 +5300,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5304,19 +5312,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5324,11 +5332,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5344,20 +5352,18 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5394,19 +5400,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5418,19 +5424,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5444,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5446,7 +5452,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5458,23 +5464,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5534,19 +5536,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5554,18 +5556,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5574,19 +5576,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5636,31 +5638,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5668,40 +5670,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5750,31 +5754,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5782,7 +5786,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5790,7 +5794,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5802,21 +5806,19 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5840,13 +5842,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5864,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5879,16 +5881,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5896,7 +5898,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5904,7 +5906,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5919,20 +5921,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5980,10 +5978,10 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5995,16 +5993,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6012,7 +6010,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6023,7 +6021,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -6032,23 +6030,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6072,13 +6066,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -6096,13 +6090,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -6111,16 +6105,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6128,11 +6122,9 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6141,7 +6133,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -6150,19 +6142,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6212,13 +6204,13 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -6227,24 +6219,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6252,7 +6244,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
@@ -6264,21 +6256,23 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6326,10 +6320,10 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -6341,16 +6335,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6369,7 +6363,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6381,15 +6375,17 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6438,31 +6434,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6470,11 +6466,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6493,16 +6489,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6540,19 +6536,19 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6564,13 +6560,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6584,7 +6580,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6604,20 +6600,18 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6666,7 +6660,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6675,16 +6669,16 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6692,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6718,20 +6712,18 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6756,13 +6748,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6780,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6792,13 +6784,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6812,7 +6804,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6823,7 +6815,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6832,20 +6824,18 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6882,37 +6872,35 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6926,9 +6914,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6937,7 +6927,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6946,20 +6936,18 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7008,25 +6996,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7040,9 +7028,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -7063,17 +7053,15 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -7122,31 +7110,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7154,9 +7142,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7177,17 +7167,15 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7236,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7245,19 +7233,19 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7268,41 +7256,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7350,31 +7340,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7382,7 +7372,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7393,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7402,16 +7392,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7462,13 +7452,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -7477,16 +7467,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7494,7 +7484,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7517,15 +7507,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7550,13 +7542,11 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7574,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7586,19 +7576,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7606,18 +7596,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7629,16 +7619,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7664,13 +7654,11 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7688,31 +7676,31 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7720,43 +7708,39 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7804,25 +7788,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7836,18 +7820,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7859,15 +7843,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7892,49 +7878,49 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>270</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7948,18 +7934,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7968,16 +7956,16 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8028,25 +8016,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8060,7 +8048,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8080,19 +8068,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8116,13 +8108,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8140,7 +8132,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8155,16 +8147,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8172,7 +8164,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8183,7 +8175,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8192,21 +8184,23 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8254,13 +8248,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8269,24 +8263,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8309,19 +8303,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>403</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8346,13 +8340,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8370,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8385,16 +8379,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8402,7 +8396,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8413,7 +8407,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8425,17 +8419,15 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8484,31 +8476,31 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>269</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8516,11 +8508,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8539,16 +8531,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>418</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8586,19 +8578,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8610,13 +8602,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8630,9 +8622,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8641,7 +8635,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8653,13 +8647,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8710,25 +8704,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8742,7 +8736,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8753,7 +8747,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8762,19 +8756,23 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8810,43 +8808,41 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8854,9 +8850,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8865,7 +8863,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8874,19 +8872,23 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8910,29 +8912,29 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8944,19 +8946,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8964,11 +8966,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8989,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>432</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>268</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9046,25 +9046,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9078,13 +9078,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9103,15 +9101,17 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -9148,19 +9148,19 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9169,7 +9169,7 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -9178,7 +9178,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9192,20 +9192,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9214,25 +9212,29 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>77</v>
@@ -9274,31 +9276,31 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>239</v>
+        <v>423</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9306,43 +9308,41 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9390,31 +9390,31 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>431</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9442,19 +9442,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9520,13 +9522,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9534,7 +9536,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9554,21 +9556,21 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9592,13 +9594,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9616,7 +9618,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9634,13 +9636,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9648,7 +9650,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9668,19 +9670,23 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9728,7 +9734,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9740,19 +9746,19 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9760,18 +9766,20 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C67" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9780,21 +9788,23 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>236</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>237</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9818,31 +9828,29 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9854,19 +9862,19 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9874,11 +9882,9 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9899,13 +9905,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>459</v>
+        <v>266</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9956,25 +9962,25 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9988,11 +9994,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10008,23 +10014,21 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>273</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10060,19 +10064,19 @@
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10084,19 +10088,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10104,7 +10108,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10112,7 +10116,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -10127,26 +10131,26 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -10188,7 +10192,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10206,13 +10210,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10220,7 +10224,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10240,19 +10244,19 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10278,13 +10282,13 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10302,7 +10306,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10320,13 +10324,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10334,7 +10338,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10354,19 +10358,21 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>231</v>
+        <v>434</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>232</v>
+        <v>435</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10414,7 +10420,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>233</v>
+        <v>437</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10426,19 +10432,19 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10446,18 +10452,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10466,21 +10472,21 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>236</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10516,43 +10522,43 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>234</v>
+        <v>445</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10560,11 +10566,9 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10582,19 +10586,23 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10642,31 +10650,31 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>239</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10674,7 +10682,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10685,7 +10693,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10697,19 +10705,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10758,13 +10766,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10776,13 +10784,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>248</v>
+        <v>392</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10790,7 +10798,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10810,23 +10818,21 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>230</v>
+        <v>467</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>290</v>
+        <v>468</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>291</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10874,7 +10880,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>294</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10883,22 +10889,22 @@
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>295</v>
+        <v>472</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10906,7 +10912,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10929,16 +10935,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>197</v>
+        <v>475</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10964,31 +10970,29 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11006,13 +11010,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11020,9 +11024,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11043,15 +11049,17 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>230</v>
+        <v>482</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -11100,7 +11108,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>233</v>
+        <v>474</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11109,22 +11117,22 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -11132,18 +11140,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -11155,17 +11163,15 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11202,37 +11208,37 @@
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11246,13 +11252,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11271,15 +11275,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>493</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>494</v>
+        <v>272</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11316,19 +11322,19 @@
         <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11346,7 +11352,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11360,9 +11366,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11380,23 +11388,19 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>241</v>
+        <v>490</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11456,19 +11460,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11476,7 +11480,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11496,23 +11500,21 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>291</v>
+        <v>495</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>294</v>
+        <v>497</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11569,22 +11571,22 @@
         <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>295</v>
+        <v>472</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11592,7 +11594,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11615,17 +11617,15 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>499</v>
+        <v>266</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11674,7 +11674,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>498</v>
+        <v>269</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11686,19 +11686,19 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>503</v>
+        <v>270</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11706,18 +11706,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11729,15 +11729,17 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11774,37 +11776,37 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11818,18 +11820,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11838,21 +11840,23 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>131</v>
+        <v>502</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>237</v>
+        <v>495</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11888,43 +11892,43 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>239</v>
+        <v>505</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11932,7 +11936,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11949,13 +11953,13 @@
         <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>508</v>
+        <v>106</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>509</v>
@@ -11972,7 +11976,9 @@
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11992,13 +11998,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -12016,7 +12022,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12034,13 +12040,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12048,7 +12054,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12059,36 +12065,36 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12108,13 +12114,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12187,7 +12193,7 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>527</v>
@@ -12195,9 +12201,11 @@
       <c r="L88" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M88" s="2"/>
+      <c r="M88" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="N88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12222,13 +12230,11 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12246,7 +12252,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12255,7 +12261,7 @@
         <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>98</v>
@@ -12264,13 +12270,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12278,7 +12284,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12286,7 +12292,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>86</v>
@@ -12301,17 +12307,19 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12336,13 +12344,11 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12360,7 +12366,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12375,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12378,13 +12384,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12392,7 +12398,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12415,20 +12421,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>106</v>
+        <v>543</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N90" t="s" s="2">
         <v>544</v>
       </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12452,29 +12454,31 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X90" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12492,13 +12496,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12506,7 +12510,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12529,17 +12533,15 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>549</v>
+        <v>266</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12576,17 +12578,19 @@
         <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>548</v>
+        <v>269</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12598,19 +12602,19 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>554</v>
+        <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12620,18 +12624,16 @@
       <c r="A92" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="B92" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12643,16 +12645,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>556</v>
+        <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>550</v>
+        <v>272</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>551</v>
+        <v>273</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12690,43 +12692,43 @@
         <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>554</v>
+        <v>77</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12734,7 +12736,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12754,19 +12756,23 @@
         <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>230</v>
+        <v>502</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>231</v>
+        <v>544</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12814,7 +12820,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12826,19 +12832,19 @@
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>77</v>
@@ -12846,45 +12852,47 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>236</v>
+        <v>552</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12904,55 +12912,55 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>239</v>
+        <v>516</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>234</v>
+        <v>517</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>77</v>
@@ -12960,11 +12968,9 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -12982,19 +12988,21 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>560</v>
+        <v>266</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13042,31 +13050,31 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>239</v>
+        <v>523</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>77</v>
@@ -13074,7 +13082,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13097,16 +13105,18 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>564</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13130,13 +13140,11 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -13154,7 +13162,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13163,7 +13171,7 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>98</v>
@@ -13172,13 +13180,13 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>77</v>
@@ -13186,7 +13194,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13209,16 +13217,20 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>564</v>
+        <v>106</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13242,13 +13254,11 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13266,7 +13276,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13284,13 +13294,13 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>77</v>
@@ -13298,10 +13308,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13323,16 +13333,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13382,7 +13392,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13394,19 +13404,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>578</v>
+        <v>471</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>579</v>
+        <v>472</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>580</v>
+        <v>473</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13414,7 +13424,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>487</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13425,7 +13435,7 @@
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>77</v>
@@ -13437,17 +13447,15 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>582</v>
+        <v>266</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>583</v>
+        <v>267</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>77</v>
@@ -13496,33 +13504,951 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
+      <c r="G107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI107" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -547,7 +547,7 @@
   </si>
   <si>
     <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
+ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -569,7 +569,7 @@
   </si>
   <si>
     <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダーセット、またはその他の定義。</t>
+このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -647,7 +647,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -777,12 +777,12 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　エンカウンター、または一部として実施されるケアエピソード</t>
+    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
   </si>
   <si>
     <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
 投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すエンカウンターへの参照。</t>
+受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1080,7 +1080,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1112,10 +1112,36 @@
     <t>MedicationAdministration.dosage.extension</t>
   </si>
   <si>
+    <t>dosageComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
+</t>
+  </si>
+  <si>
+    <t>用法コメント</t>
+  </si>
+  <si>
+    <t>用法コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
+</t>
+  </si>
+  <si>
+    <t>投与装置</t>
+  </si>
+  <si>
+    <t>投与装置を格納する拡張</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Line}
 </t>
   </si>
   <si>
@@ -1128,7 +1154,7 @@
     <t>lineComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Dosage_LineComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_LineComment}
 </t>
   </si>
   <si>
@@ -1138,17 +1164,17 @@
     <t>ラインコメントを格納するための拡張</t>
   </si>
   <si>
-    <t>dosageComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Dosage_DosageComment}
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
 </t>
   </si>
   <si>
-    <t>用法コメント</t>
-  </si>
-  <si>
-    <t>用法コメントを格納するための拡張</t>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.modifierExtension</t>
@@ -1184,13 +1210,100 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
   </si>
   <si>
     <t>RXR-2 Administration Site / RXR-6 Administration Site Modifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {bodySite}
+</t>
+  </si>
+  <si>
+    <t>Target anatomic location or structure</t>
+  </si>
+  <si>
+    <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
+  </si>
+  <si>
+    <t>siteComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_SiteComment}
+</t>
+  </si>
+  <si>
+    <t>投与部位コメント</t>
+  </si>
+  <si>
+    <t>投与部位コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route</t>
@@ -1203,7 +1316,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1218,13 +1331,10 @@
     <t>MedicationAdministration.dosage.route.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>routeComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRoute_RouteComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
 </t>
   </si>
   <si>
@@ -1237,62 +1347,16 @@
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.route.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1319,7 +1383,7 @@
     <t>methodComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageMethod_MethodComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
 </t>
   </si>
   <si>
@@ -1351,7 +1415,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1487,7 +1551,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1505,7 +1569,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.dose</t>
@@ -1539,7 +1603,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity</t>
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1580,255 +1644,6 @@
     <t>RTO</t>
   </si>
   <si>
-    <t>MedicationAdministration.dosage.rate[x].id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].extension</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
-</t>
-  </si>
-  <si>
-    <t>投与量</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
-  </si>
-  <si>
-    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
-  </si>
-  <si>
-    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
-  </si>
-  <si>
-    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>投与量の単位</t>
-  </si>
-  <si>
-    <t>投与量の単位。</t>
-  </si>
-  <si>
-    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>コード化された単位表現を規定するシステム</t>
-  </si>
-  <si>
-    <t>単位をコード化して表現するシステムについてのID。</t>
-  </si>
-  <si>
-    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
-    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>単位時間</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>単位時間の単位</t>
-  </si>
-  <si>
-    <t>単位時間の単位。UCUMを使用する。</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
     <t>rateQuantity</t>
   </si>
   <si>
@@ -1836,49 +1651,10 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
+    <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].value</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].comparator</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].code</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2205,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2214,7 +1990,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2238,7 +2014,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -7256,11 +7032,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7273,26 +7051,22 @@
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7340,7 +7114,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7349,7 +7123,7 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>137</v>
@@ -7358,7 +7132,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7372,9 +7146,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7383,7 +7159,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7395,13 +7171,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7452,25 +7228,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7484,41 +7260,43 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7542,11 +7320,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7564,31 +7344,31 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>361</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7596,7 +7376,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7619,17 +7399,15 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7654,11 +7432,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7456,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7694,13 +7474,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7708,7 +7488,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7731,15 +7511,17 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7764,13 +7546,11 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7788,7 +7568,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7800,19 +7580,19 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7820,18 +7600,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7843,17 +7623,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7890,31 +7668,31 @@
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
@@ -7934,13 +7712,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B51" t="s" s="2">
         <v>372</v>
       </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7959,15 +7735,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8004,16 +7782,16 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>274</v>
@@ -8034,7 +7812,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8048,9 +7826,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8068,23 +7848,19 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8132,7 +7908,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8144,19 +7920,19 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8164,9 +7940,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8175,7 +7953,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8184,23 +7962,19 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8248,31 +8022,31 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>390</v>
+        <v>274</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8280,7 +8054,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8291,7 +8065,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8300,22 +8074,22 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8340,13 +8114,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8364,13 +8138,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8382,13 +8156,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8396,7 +8170,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8416,19 +8190,23 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8476,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8488,19 +8266,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8508,18 +8286,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8531,16 +8309,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8566,55 +8344,53 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8622,11 +8398,9 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8635,7 +8409,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8647,13 +8421,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>404</v>
+        <v>266</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>267</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>268</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8704,25 +8478,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8736,11 +8510,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8756,23 +8530,21 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8808,9 +8580,11 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8818,7 +8592,7 @@
         <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8830,19 +8604,19 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8850,10 +8624,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
@@ -8863,7 +8637,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8872,23 +8646,19 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8912,11 +8682,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8934,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8946,19 +8718,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8966,7 +8738,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8977,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8986,19 +8758,23 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>267</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9046,31 +8822,31 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -9078,18 +8854,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -9098,21 +8874,23 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9148,43 +8926,43 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9192,7 +8970,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9200,7 +8978,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
@@ -9212,29 +8990,29 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>77</v>
@@ -9252,13 +9030,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9276,7 +9054,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9294,13 +9072,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9308,7 +9086,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9328,20 +9106,18 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>266</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9390,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>430</v>
+        <v>269</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9402,19 +9178,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9422,18 +9198,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9442,21 +9218,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9492,43 +9268,43 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>437</v>
+        <v>274</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>438</v>
+        <v>270</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9536,9 +9312,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9547,7 +9325,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9556,21 +9334,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>266</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9618,31 +9394,31 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9650,7 +9426,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9661,7 +9437,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9673,19 +9449,19 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9722,25 +9498,23 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9752,13 +9526,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>454</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9766,10 +9540,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -9791,19 +9565,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9832,7 +9606,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9850,7 +9624,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9868,13 +9642,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9882,7 +9656,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9994,7 +9768,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10067,7 +9841,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
@@ -10108,7 +9882,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10134,23 +9908,23 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -10192,7 +9966,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10210,13 +9984,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10224,7 +9998,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10250,13 +10024,13 @@
         <v>266</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10306,7 +10080,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10324,13 +10098,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10338,7 +10112,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10364,14 +10138,14 @@
         <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10420,7 +10194,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10438,13 +10212,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10226,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10478,14 +10252,14 @@
         <v>266</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10534,7 +10308,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10552,13 +10326,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10566,7 +10340,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10589,19 +10363,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10650,7 +10424,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10668,13 +10442,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10682,9 +10456,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10705,19 +10481,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10742,13 +10518,11 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10766,13 +10540,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10784,13 +10558,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10798,7 +10572,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10821,17 +10595,15 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>468</v>
+        <v>267</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10880,7 +10652,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>466</v>
+        <v>269</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10889,22 +10661,22 @@
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>472</v>
+        <v>270</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10912,18 +10684,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10935,16 +10707,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>475</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>476</v>
+        <v>272</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>477</v>
+        <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10982,41 +10754,43 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>474</v>
+        <v>274</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11024,17 +10798,15 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>86</v>
@@ -11046,27 +10818,29 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>482</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>77</v>
@@ -11108,7 +10882,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11117,22 +10891,22 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>485</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -11140,7 +10914,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11160,18 +10934,20 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>266</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>267</v>
+        <v>447</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11220,7 +10996,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>269</v>
+        <v>450</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11232,19 +11008,19 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>270</v>
+        <v>451</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11252,18 +11028,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -11272,21 +11048,21 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>272</v>
+        <v>454</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11322,43 +11098,43 @@
         <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>274</v>
+        <v>457</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11366,11 +11142,9 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11379,7 +11153,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11388,19 +11162,21 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11448,31 +11224,31 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>274</v>
+        <v>464</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11480,7 +11256,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11500,21 +11276,23 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11562,7 +11340,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11571,22 +11349,22 @@
         <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11594,7 +11372,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11614,19 +11392,23 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>266</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11674,7 +11456,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11686,19 +11468,19 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11706,18 +11488,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11729,16 +11511,16 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>487</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>272</v>
+        <v>488</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>273</v>
+        <v>489</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>490</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11776,43 +11558,43 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>274</v>
+        <v>486</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>137</v>
+        <v>491</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>270</v>
+        <v>492</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11820,7 +11602,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11828,7 +11610,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>86</v>
@@ -11840,23 +11622,21 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11892,19 +11672,17 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11922,13 +11700,13 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11936,9 +11714,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11953,32 +11733,28 @@
         <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>106</v>
+        <v>502</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P86" t="s" s="2">
-        <v>513</v>
-      </c>
+      <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11998,13 +11774,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>514</v>
+        <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -12022,7 +11798,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12031,22 +11807,22 @@
         <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>505</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>518</v>
+        <v>129</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12054,9 +11830,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12074,23 +11852,21 @@
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12138,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12147,22 +11923,22 @@
         <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>491</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12170,7 +11946,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12181,7 +11957,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12190,23 +11966,21 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12230,11 +12004,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X88" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y88" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12252,16 +12028,16 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>533</v>
+        <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>98</v>
@@ -12270,2185 +12046,15 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X89" s="2"/>
-      <c r="Y89" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Q94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X96" s="2"/>
-      <c r="Y96" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Q103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -543,23 +543,269 @@
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -612,9 +858,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -634,10 +877,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -873,32 +1112,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1225,9 +1439,6 @@
     <t>MedicationAdministration.dosage.site.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>bodySite</t>
   </si>
   <si>
@@ -1394,10 +1605,6 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -1981,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2013,7 +2220,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3754,7 +3961,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -3816,16 +4023,14 @@
         <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>166</v>
@@ -3843,13 +4048,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3860,18 +4065,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3880,18 +4087,20 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3940,7 +4149,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3955,13 +4164,13 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3983,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3992,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>180</v>
@@ -4052,22 +4261,22 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>184</v>
@@ -4088,26 +4297,26 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>186</v>
@@ -4116,7 +4325,7 @@
         <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4142,55 +4351,55 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4407,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4209,30 +4418,32 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4256,13 +4467,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4280,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4295,16 +4506,16 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4312,7 +4523,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4332,19 +4543,23 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4368,13 +4583,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4392,7 +4607,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4410,13 +4625,13 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4424,7 +4639,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4447,30 +4662,32 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4494,20 +4711,22 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4519,16 +4738,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4536,11 +4755,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4561,16 +4778,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4584,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4620,10 +4837,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4635,16 +4852,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4869,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4660,7 +4877,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
@@ -4675,17 +4892,15 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4734,10 +4949,10 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
@@ -4749,16 +4964,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4766,7 +4981,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4786,19 +5001,19 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4848,7 +5063,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4863,16 +5078,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4880,9 +5095,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4903,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>245</v>
@@ -4912,7 +5129,7 @@
         <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4962,7 +5179,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4977,13 +5194,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4994,7 +5211,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5002,7 +5219,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -5014,20 +5231,18 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5076,10 +5291,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5088,19 +5303,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5108,11 +5323,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5128,18 +5343,20 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5176,19 +5393,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5200,19 +5417,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5437,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5237,22 +5454,26 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5276,13 +5497,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5300,7 +5521,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5312,19 +5533,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,18 +5553,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5352,21 +5573,23 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5390,13 +5613,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5414,31 +5637,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,55 +5669,55 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5530,31 +5753,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5562,7 +5785,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5570,7 +5793,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5582,18 +5805,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5831,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5618,13 +5843,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5642,7 +5867,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5657,16 +5882,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5674,7 +5899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5682,7 +5907,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5697,13 +5922,13 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5754,10 +5979,10 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5769,16 +5994,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5786,7 +6011,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5797,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5806,18 +6031,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5842,13 +6069,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5866,13 +6093,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5881,16 +6108,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5898,7 +6125,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5918,20 +6145,18 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5980,7 +6205,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5995,24 +6220,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6023,7 +6248,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6032,23 +6257,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6096,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6111,16 +6332,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6128,7 +6349,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6136,31 +6357,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6186,13 +6407,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6210,13 +6431,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6225,16 +6446,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6463,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6265,16 +6486,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6300,13 +6521,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6324,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6339,16 +6560,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6356,7 +6577,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6379,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6412,13 +6633,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6436,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6448,13 +6669,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6468,7 +6689,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6476,7 +6697,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
@@ -6488,18 +6709,20 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6536,22 +6759,20 @@
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -6560,19 +6781,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6580,18 +6801,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6600,18 +6823,20 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6648,41 +6873,43 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6690,20 +6917,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6712,18 +6937,20 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6772,31 +6999,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6804,11 +7031,9 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6817,7 +7042,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6829,15 +7054,17 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6886,31 +7113,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6918,11 +7145,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6943,15 +7168,17 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7000,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7009,19 +7236,19 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7032,20 +7259,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -7054,18 +7279,20 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7114,31 +7341,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7146,11 +7373,9 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7168,16 +7393,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7228,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7237,22 +7462,22 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7260,43 +7485,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7344,25 +7565,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7376,18 +7597,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7399,15 +7620,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7456,25 +7679,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7488,41 +7711,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7546,11 +7771,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7568,31 +7795,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>369</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7600,7 +7827,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7623,13 +7850,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7656,13 +7883,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7680,7 +7907,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7692,13 +7919,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7712,18 +7939,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7732,20 +7959,18 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7782,37 +8007,37 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7826,11 +8051,9 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7851,13 +8074,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>375</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7884,13 +8107,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7908,7 +8131,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7920,19 +8143,19 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7940,11 +8163,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7965,15 +8186,17 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8022,7 +8245,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8034,27 +8257,27 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8065,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8074,22 +8297,22 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8138,13 +8361,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8153,16 +8376,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8170,7 +8393,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8181,7 +8404,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8190,23 +8413,21 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8254,13 +8475,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8272,13 +8493,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8286,7 +8507,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8297,7 +8518,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8309,16 +8530,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>197</v>
+        <v>396</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8344,11 +8565,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8366,13 +8589,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8381,16 +8604,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8621,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8421,13 +8644,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8478,7 +8701,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>269</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8490,13 +8713,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>270</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8510,18 +8733,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8533,17 +8756,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8580,37 +8801,37 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8624,11 +8845,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8649,13 +8868,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>133</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8694,19 +8913,17 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8738,9 +8955,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8758,23 +8977,19 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8822,7 +9037,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8831,22 +9046,22 @@
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8854,9 +9069,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8865,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8874,23 +9091,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8938,31 +9151,31 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8970,9 +9183,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8981,7 +9196,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8993,20 +9208,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9030,13 +9241,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9054,31 +9265,31 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9086,9 +9297,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9097,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9109,13 +9322,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9166,25 +9379,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9198,11 +9411,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="C64" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9221,17 +9436,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9268,19 +9481,19 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9289,7 +9502,7 @@
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>137</v>
@@ -9298,7 +9511,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9312,13 +9525,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9331,22 +9542,26 @@
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>425</v>
+        <v>347</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9394,7 +9609,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9412,7 +9627,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9426,7 +9641,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9437,7 +9652,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9446,23 +9661,19 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9498,23 +9709,25 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9526,13 +9739,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9540,11 +9753,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9562,23 +9773,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9606,31 +9815,31 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
@@ -9642,13 +9851,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9865,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9679,13 +9888,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9736,7 +9945,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9754,7 +9963,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9768,7 +9977,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9794,10 +10003,10 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>163</v>
@@ -9841,7 +10050,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
@@ -9850,7 +10059,7 @@
         <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9868,7 +10077,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9882,18 +10091,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9902,29 +10113,25 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -9966,31 +10173,31 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>443</v>
+        <v>189</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9998,9 +10205,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10009,7 +10218,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10018,20 +10227,18 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>266</v>
+        <v>448</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10080,31 +10287,31 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>189</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10112,7 +10319,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10123,7 +10330,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10135,15 +10342,17 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
         <v>456</v>
       </c>
@@ -10200,7 +10409,7 @@
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
@@ -10249,7 +10458,7 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>461</v>
@@ -10257,9 +10466,11 @@
       <c r="L73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10308,7 +10519,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10326,13 +10537,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10340,7 +10551,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10360,10 +10571,10 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>468</v>
+        <v>201</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>469</v>
@@ -10372,11 +10583,9 @@
         <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10400,13 +10609,11 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10424,7 +10631,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10442,13 +10649,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10456,11 +10663,9 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10478,23 +10683,19 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>477</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10518,11 +10719,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10540,31 +10743,31 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10572,18 +10775,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10595,15 +10798,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10640,37 +10845,37 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10684,11 +10889,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="C77" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10707,17 +10914,15 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10754,19 +10959,19 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10784,7 +10989,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10798,7 +11003,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10806,10 +11011,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10821,26 +11026,26 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>77</v>
@@ -10882,13 +11087,13 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
@@ -10900,13 +11105,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10914,7 +11119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10937,18 +11142,20 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10996,7 +11203,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11014,13 +11221,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11028,7 +11235,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11048,20 +11255,22 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11086,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -11110,7 +11319,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11128,13 +11337,13 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11142,7 +11351,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,21 +11371,19 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>182</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11224,7 +11431,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11236,19 +11443,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>465</v>
+        <v>184</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11256,18 +11463,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11276,23 +11483,21 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>469</v>
+        <v>186</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>187</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11328,43 +11533,43 @@
         <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>473</v>
+        <v>189</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>474</v>
+        <v>184</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11372,9 +11577,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11383,7 +11590,7 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11392,23 +11599,19 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11456,31 +11659,31 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11488,7 +11691,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11499,7 +11702,7 @@
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11508,21 +11711,23 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11558,43 +11763,41 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11602,9 +11805,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11622,21 +11827,23 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11660,35 +11867,35 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB85" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -11700,13 +11907,13 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11714,11 +11921,9 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11739,17 +11944,15 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>502</v>
+        <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11798,7 +12001,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>494</v>
+        <v>183</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11807,22 +12010,22 @@
         <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11830,20 +12033,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11855,16 +12056,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>509</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>509</v>
+        <v>187</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>510</v>
+        <v>163</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11902,43 +12103,43 @@
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>494</v>
+        <v>189</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>492</v>
+        <v>184</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11946,7 +12147,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11954,10 +12155,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -11966,27 +12167,29 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>77</v>
@@ -12034,7 +12237,7 @@
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
@@ -12046,15 +12249,2077 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X93" s="2"/>
+      <c r="Y93" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AB103" s="2"/>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1526,7 +1526,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
